--- a/Jogos_do_Dia/2024-01-29_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-29_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -211,15 +211,15 @@
     <t>Galatasaray</t>
   </si>
   <si>
+    <t>FC Penafiel</t>
+  </si>
+  <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
     <t>Benfica II</t>
   </si>
   <si>
-    <t>FC Penafiel</t>
-  </si>
-  <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
     <t>Estrela Amadora</t>
   </si>
   <si>
@@ -259,13 +259,13 @@
     <t>Gazişehir Gaziantep</t>
   </si>
   <si>
+    <t>CD Feirense</t>
+  </si>
+  <si>
+    <t>Voluntari</t>
+  </si>
+  <si>
     <t>União de Leiria</t>
-  </si>
-  <si>
-    <t>CD Feirense</t>
-  </si>
-  <si>
-    <t>Voluntari</t>
   </si>
   <si>
     <t>Benfica</t>
@@ -820,13 +820,13 @@
         <v>2.87</v>
       </c>
       <c r="J2">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L2">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="M2">
         <v>1.33</v>
@@ -847,10 +847,10 @@
         <v>3.82</v>
       </c>
       <c r="S2">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U2">
         <v>1.63</v>
@@ -951,13 +951,13 @@
         <v>3.2</v>
       </c>
       <c r="J3">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="K3">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L3">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="M3">
         <v>1.36</v>
@@ -978,10 +978,10 @@
         <v>3.61</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U3">
         <v>1.73</v>
@@ -1082,13 +1082,13 @@
         <v>4.6</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K4">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M4">
         <v>1.32</v>
@@ -1109,10 +1109,10 @@
         <v>4.22</v>
       </c>
       <c r="S4">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="T4">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U4">
         <v>1.68</v>
@@ -1213,13 +1213,13 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="K5">
         <v>7</v>
       </c>
       <c r="L5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M5">
         <v>1.2</v>
@@ -1240,10 +1240,10 @@
         <v>6.09</v>
       </c>
       <c r="S5">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T5">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="U5">
         <v>1.95</v>
@@ -1335,120 +1335,120 @@
         <v>81</v>
       </c>
       <c r="G6">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="H6">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="I6">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J6">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2.86</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>2.5</v>
+      </c>
+      <c r="O6">
+        <v>1.1</v>
+      </c>
+      <c r="P6">
+        <v>6.5</v>
+      </c>
+      <c r="Q6">
         <v>1.4</v>
       </c>
-      <c r="N6">
+      <c r="R6">
         <v>2.75</v>
       </c>
-      <c r="O6">
-        <v>1.07</v>
-      </c>
-      <c r="P6">
-        <v>7.5</v>
-      </c>
-      <c r="Q6">
-        <v>1.33</v>
-      </c>
-      <c r="R6">
-        <v>3.25</v>
-      </c>
       <c r="S6">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.73</v>
       </c>
-      <c r="V6">
+      <c r="W6">
+        <v>1.18</v>
+      </c>
+      <c r="X6">
+        <v>1.37</v>
+      </c>
+      <c r="Y6">
+        <v>1.7</v>
+      </c>
+      <c r="Z6">
         <v>2</v>
       </c>
-      <c r="W6">
-        <v>1.27</v>
-      </c>
-      <c r="X6">
-        <v>1.32</v>
-      </c>
-      <c r="Y6">
-        <v>1.6</v>
-      </c>
-      <c r="Z6">
-        <v>1.56</v>
-      </c>
       <c r="AA6">
-        <v>0.78</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB6">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AC6">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="AD6">
-        <v>2.77</v>
+        <v>2.69</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>45320</v>
@@ -1457,7 +1457,7 @@
         <v>54</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>66</v>
@@ -1466,120 +1466,120 @@
         <v>82</v>
       </c>
       <c r="G7">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="H7">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="I7">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="K7">
-        <v>2.98</v>
+        <v>4.1</v>
       </c>
       <c r="L7">
-        <v>3.33</v>
+        <v>6.5</v>
       </c>
       <c r="M7">
+        <v>1.36</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>1.01</v>
+      </c>
+      <c r="P7">
+        <v>9.4</v>
+      </c>
+      <c r="Q7">
+        <v>1.26</v>
+      </c>
+      <c r="R7">
+        <v>3.34</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>1.85</v>
+      </c>
+      <c r="U7">
+        <v>2.1</v>
+      </c>
+      <c r="V7">
+        <v>1.67</v>
+      </c>
+      <c r="W7">
+        <v>1.07</v>
+      </c>
+      <c r="X7">
+        <v>1.19</v>
+      </c>
+      <c r="Y7">
+        <v>2.75</v>
+      </c>
+      <c r="Z7">
+        <v>2.27</v>
+      </c>
+      <c r="AA7">
+        <v>1.18</v>
+      </c>
+      <c r="AB7">
+        <v>1.83</v>
+      </c>
+      <c r="AC7">
+        <v>1.17</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>1.3</v>
+      </c>
+      <c r="AF7">
+        <v>9.5</v>
+      </c>
+      <c r="AG7">
+        <v>4.44</v>
+      </c>
+      <c r="AH7">
+        <v>1.27</v>
+      </c>
+      <c r="AI7">
+        <v>3.55</v>
+      </c>
+      <c r="AJ7">
         <v>1.5</v>
       </c>
-      <c r="N7">
-        <v>2.5</v>
-      </c>
-      <c r="O7">
-        <v>1.1</v>
-      </c>
-      <c r="P7">
-        <v>6.5</v>
-      </c>
-      <c r="Q7">
-        <v>1.4</v>
-      </c>
-      <c r="R7">
-        <v>2.75</v>
-      </c>
-      <c r="S7">
-        <v>2.42</v>
-      </c>
-      <c r="T7">
-        <v>1.45</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.73</v>
-      </c>
-      <c r="W7">
-        <v>1.18</v>
-      </c>
-      <c r="X7">
-        <v>1.37</v>
-      </c>
-      <c r="Y7">
-        <v>1.7</v>
-      </c>
-      <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AB7">
+      <c r="AK7">
+        <v>2.48</v>
+      </c>
+      <c r="AL7">
+        <v>1.93</v>
+      </c>
+      <c r="AM7">
+        <v>1.88</v>
+      </c>
+      <c r="AN7">
+        <v>2.45</v>
+      </c>
+      <c r="AO7">
         <v>1.5</v>
       </c>
-      <c r="AC7">
-        <v>1.19</v>
-      </c>
-      <c r="AD7">
-        <v>2.69</v>
-      </c>
-      <c r="AE7">
-        <v>1.51</v>
-      </c>
-      <c r="AF7">
-        <v>9</v>
-      </c>
-      <c r="AG7">
-        <v>3.06</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>1.54</v>
-      </c>
-      <c r="AM7">
-        <v>2.47</v>
-      </c>
-      <c r="AN7">
-        <v>1.85</v>
-      </c>
-      <c r="AO7">
-        <v>1.95</v>
-      </c>
       <c r="AP7">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ7">
-        <v>1.61</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2">
         <v>45320</v>
@@ -1588,7 +1588,7 @@
         <v>54</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
@@ -1597,115 +1597,115 @@
         <v>83</v>
       </c>
       <c r="G8">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="H8">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="J8">
+        <v>2.25</v>
+      </c>
+      <c r="K8">
+        <v>3.2</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
         <v>1.4</v>
       </c>
-      <c r="K8">
-        <v>4</v>
-      </c>
-      <c r="L8">
-        <v>6.5</v>
-      </c>
-      <c r="M8">
-        <v>1.36</v>
-      </c>
       <c r="N8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O8">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P8">
-        <v>9.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q8">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="R8">
-        <v>3.34</v>
+        <v>3.25</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T8">
-        <v>1.83</v>
+        <v>1.68</v>
       </c>
       <c r="U8">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="V8">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="W8">
-        <v>1.07</v>
+        <v>1.27</v>
       </c>
       <c r="X8">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="Y8">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="Z8">
-        <v>2.27</v>
+        <v>1.56</v>
       </c>
       <c r="AA8">
-        <v>1.18</v>
+        <v>0.78</v>
       </c>
       <c r="AB8">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AC8">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AD8">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="AE8">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>4.44</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AI8">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AL8">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>1.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1737,13 +1737,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="K9">
         <v>5.5</v>
       </c>
       <c r="L9">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>1.6</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1946,28 +1946,28 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2077,10 +2077,10 @@
         <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AL11">
         <v>1.61</v>
@@ -2261,13 +2261,13 @@
         <v>4.5</v>
       </c>
       <c r="J13">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="K13">
-        <v>3.5</v>
+        <v>2.95</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="M13">
         <v>1.4</v>
@@ -2288,10 +2288,10 @@
         <v>3.18</v>
       </c>
       <c r="S13">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="T13">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U13">
         <v>1.83</v>
@@ -2392,13 +2392,13 @@
         <v>4.25</v>
       </c>
       <c r="J14">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K14">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L14">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="M14">
         <v>1.42</v>
@@ -2419,10 +2419,10 @@
         <v>3.39</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U14">
         <v>1.84</v>
@@ -2526,10 +2526,10 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L15">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M15">
         <v>1.44</v>
@@ -2550,10 +2550,10 @@
         <v>3.25</v>
       </c>
       <c r="S15">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T15">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="U15">
         <v>2</v>
@@ -2654,13 +2654,13 @@
         <v>5.5</v>
       </c>
       <c r="J16">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M16">
         <v>1.5</v>
@@ -2681,10 +2681,10 @@
         <v>2.8</v>
       </c>
       <c r="S16">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T16">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U16">
         <v>2.1</v>
@@ -2785,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T17">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
         <v>0</v>
